--- a/mosip_master/xlsx/role_list.xlsx
+++ b/mosip_master/xlsx/role_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nagarjuna\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tf_nira\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEC281D-FA4F-4D1E-ACE0-F6F084BAEAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937945A9-D858-4018-A56E-FD7F4F75DFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>lang_code</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>Registration Admin</t>
+  </si>
+  <si>
+    <t>REGISTRATION_OPERATOR</t>
+  </si>
+  <si>
+    <t>Registration Operator</t>
   </si>
 </sst>
 </file>
@@ -466,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,6 +556,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
